--- a/biology/Botanique/Drosera_burmanni/Drosera_burmanni.xlsx
+++ b/biology/Botanique/Drosera_burmanni/Drosera_burmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Drosera burmannii est une plante carnivore du genre Drosera
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire de l’Australie, Inde, Chine, Japon, Sud-est de l'Asie. Elle pousse dans un climat tropical dans des sols très variables : sable, tourbe, grès, terre…Il existe également quelques formes de cette espèce.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle, terrestre, de 2 à 4 cm de diamètre. Ces végétaux se multiplient abondamment, mais leur acclimatation est délicate. Près de 8 ans d’essais peuvent être nécessaires pour arriver à obtenir un cycle complet.
-Feuilles : Obovales, spatulées, dotées de poils glanduleux marginaux. Ils sont dotés de mouvements rapides, bien visibles à l’œil, pour la capture des proies[1].
+Feuilles : Obovales, spatulées, dotées de poils glanduleux marginaux. Ils sont dotés de mouvements rapides, bien visibles à l’œil, pour la capture des proies.
 Fleurs : Nombreuses fleurs blanches petites de 8 mm de diamètre. Les graines se ressèment facilement.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Annuelle, la plante ne vit que quelques mois, et meurt généralement en hiver, après la floraison.
 Substrat : 70 % de tourbe blonde, 10 % de sable, 10 % de perlite, 10 % de vermiculite.
